--- a/examples/reports/ru-ru/ProposalsHistoryTemplate.xlsx
+++ b/examples/reports/ru-ru/ProposalsHistoryTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\bidzaar\src\etplight\backend\services\reportgenerator\src\Cognitive.ReportGenerator\Templates\ru-ru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED63D0D6-9E5C-4A5E-814D-7B8EA1E28754}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FC3373-3165-4542-BA66-F868C9DBAD5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>История предложений</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Запрос</t>
   </si>
   <si>
@@ -163,7 +160,7 @@
     <t>$.ProposalDetails[*].PositionPrice</t>
   </si>
   <si>
-    <t>Документ сформирован $.Now, время в документе указано в часовом поясе $.Tz</t>
+    <t>Сформировано $.BrandName в $.Now, время в документе указано в часовом поясе $.Tz</t>
   </si>
 </sst>
 </file>
@@ -173,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -232,6 +229,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -289,9 +292,6 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -332,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -737,165 +740,162 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6">
-      <c r="A14" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +903,7 @@
     <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -926,67 +926,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
